--- a/PatternObjectModel/data/TC002.xlsx
+++ b/PatternObjectModel/data/TC002.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>UserName</t>
   </si>
@@ -30,25 +30,28 @@
     <t>crmsfa</t>
   </si>
   <si>
-    <t>Error Message</t>
-  </si>
-  <si>
-    <t>password was empty reenter</t>
-  </si>
-  <si>
-    <t>username was empty reenter</t>
-  </si>
-  <si>
-    <t>DemoSalesManager1</t>
-  </si>
-  <si>
-    <t>User not found.</t>
-  </si>
-  <si>
-    <t>crmsfa1</t>
-  </si>
-  <si>
-    <t>Password incorrect.</t>
+    <t>Cnaem</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>SKPR Softwar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kani prabhu </t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>KANI  Softwar</t>
+  </si>
+  <si>
+    <t>Prabu</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -415,7 +418,7 @@
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,45 +428,45 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
